--- a/data/trans_dic/P54_A_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido (tasa de respuesta: 96,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>13,1%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13,97%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>8,69; 18,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>0,75; 7,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>0,0; 4,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>9,16; 19,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,06</t>
+          <t>3,12; 10,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>10,17; 17,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,39; 4,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>1,96; 6,64</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>12,34; 27,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,24</t>
+          <t>1,86; 23,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>1,9; 8,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>16,67; 28,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>1,62; 7,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>2,81; 8,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>16,24; 25,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>2,52; 13,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,87; 7,32</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,77%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>11,14; 21,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>0,79; 9,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>2,41; 8,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>16,37; 25,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,0; 4,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>1,54; 5,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>14,94; 21,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>1,35; 6,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,44; 6,12</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>11,58; 20,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>1,12; 5,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,39; 3,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>22,42; 31,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>1,57; 5,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>1,67; 5,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>18,27; 24,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,95; 4,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,28; 3,47</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,81%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>19,58; 34,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>2,95; 8,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>2,92; 9,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>19,46; 33,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>1,45; 6,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0,85; 4,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>21,56; 31,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,63; 6,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,33; 5,82</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>17,53%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12,93%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>11,83; 24,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,26</t>
+          <t>0,0; 3,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>0,0; 9,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>7,99; 19,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,33; 3,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>11,28; 19,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,0; 1,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,59; 4,89</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>15,28; 20,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,45; 6,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,33; 4,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>18,91; 23,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,47; 3,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,58; 4,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>17,53; 20,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,2; 4,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,68; 4,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido (tasa de respuesta: 96,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>64610</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15657</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7957</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>61683</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31496</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>126294</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15657</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>39453</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>42870; 93062</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3740; 36915</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 25198</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>40464; 86283</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15816; 54865</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>95078; 161712</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3731; 39547</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19884; 67476</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>97291</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>40082</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24109</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>110224</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19631</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25840</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>207515</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>59713</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>49949</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>65609; 144661</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10580; 132115</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10706; 46149</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>81392; 140202</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8344; 40933</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14027; 44261</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>165591; 260052</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27206; 150070</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>30486; 77683</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>102292</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21290</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>29535</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>133250</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17218</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22436</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>235542</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38508</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>51971</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>72704; 138838</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5366; 65078</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16233; 58339</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>106411; 163189</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7038; 33607</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10855; 36956</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>194711; 281574</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18646; 86382</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33688; 84318</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>94128</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19018</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7646</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>168876</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21608</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>20690</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>263004</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40626</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>28336</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>68568; 119996</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7204; 34635</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2437; 19567</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>141157; 200798</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10529; 36831</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>10898; 36803</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>223108; 302011</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>25592; 64493</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16392; 44418</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>113920</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>25136</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>25445</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>103143</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16188</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9947</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>217063</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>41324</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>35392</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>86600; 151875</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14474; 43477</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13355; 41490</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>76761; 130510</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7291; 32005</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4011; 20613</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>180450; 264051</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>26093; 65316</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>21637; 54107</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>60415</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5750</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10269</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>46638</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7788</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>107053</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5750</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18057</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>40761; 85473</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 20422</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 38538</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>28813; 68906</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1906; 22739</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>79579; 139851</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 20675</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5823; 47877</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>485.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>532656</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>126933</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>104962</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>623815</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>74645</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>118196</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1156471</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>201578</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>223158</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>467046; 618735</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>83511; 223948</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>75533; 150992</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>560664; 693114</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>52247; 106805</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>87928; 152422</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1055559; 1254716</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>153066; 296720</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>178348; 278360</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>